--- a/medicine/Mort/Rodriguez_c._Colombie-Britannique_(Procureur_général)/Rodriguez_c._Colombie-Britannique_(Procureur_général).xlsx
+++ b/medicine/Mort/Rodriguez_c._Colombie-Britannique_(Procureur_général)/Rodriguez_c._Colombie-Britannique_(Procureur_général).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rodriguez_c._Colombie-Britannique_(Procureur_g%C3%A9n%C3%A9ral)</t>
+          <t>Rodriguez_c._Colombie-Britannique_(Procureur_général)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Création de Rodriguez c. Colombie-Britannique (Procureur général) est une décision de la Cour suprême du Canada en 1993 établissant que l'interdiction criminelle de l'aide au suicide ne constitue pas une violation de la Charte canadienne des droits et libertés. Cette décision fait suite à une contestation à l'effet contraire de la part d'une femme en phase terminale, Sue Rodriguez (en). Dans une décision à la majorité de 5 contre 4, la cour a maintenu la disposition du Code criminel.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rodriguez_c._Colombie-Britannique_(Procureur_g%C3%A9n%C3%A9ral)</t>
+          <t>Rodriguez_c._Colombie-Britannique_(Procureur_général)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sue Rodriguez (en) était une mère de 42 ans atteinte de la sclérose latérale amyotrophique, diagnostiquée en 1992. En 1993, il a été déterminé qu'elle ne vivrait pas plus d'un an. C'est alors qu'elle entama une poursuite pour abolir l'article 241(b) du Code criminel qui rendait l'aide au suicide illégale, incluant le fait d'être assisté par un physicien pour le suicide.
 Elle a mené la cause devant la Cour suprême de la Colombie-Britannique en affirmant que cet article du Code criminel violait les articles 7, 12 et 15(1) de la Charte canadienne des droits et libertés qui garantissent respectivement le « droit à la vie, à la liberté et la sécurité de sa personne », la « protection contre les châtiments cruels et inusités » et le « droit à l'égalité ».
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rodriguez_c._Colombie-Britannique_(Procureur_g%C3%A9n%C3%A9ral)</t>
+          <t>Rodriguez_c._Colombie-Britannique_(Procureur_général)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Décision de la cour</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">John Sopinka, écrivant pour la majorité, a déterminé qu'il n'y avait pas de violation de l'article 7. Il a déterminé que la disposition du Code criminel ne violait aucun principe de justice fondamentale et qu'elle représentait les valeurs fondamentales de la société.
 De plus, il a rejeté que la disposition constituait une violation de l'article 12 puisqu'une simple interdiction ne constitue pas un moyen de traitement.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rodriguez_c._Colombie-Britannique_(Procureur_g%C3%A9n%C3%A9ral)</t>
+          <t>Rodriguez_c._Colombie-Britannique_(Procureur_général)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Renversement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">22 ans après la décision dans le cas Rodriguez c. Colombie-Britannique (Procureur général), c'est-à-dire en 2015, la Cour suprême du Canada a jugé dans l'affaire Carter v Canada (AG) que le fait d'interdire l'aide au suicide constitue, dans certains cas, une violation de l'article 7 de la Charte canadienne des droits et libertés.
 </t>
